--- a/Testbook_Maven/src/test/resources/profile_update.xlsx
+++ b/Testbook_Maven/src/test/resources/profile_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA976054-7959-4B3B-B559-9E8021D76401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8AFA92B2-D350-49AF-A059-2DE486C4BAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="760" windowWidth="18510" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
+    <workbookView xWindow="1330" yWindow="380" windowWidth="18550" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>893</t>
   </si>
   <si>
-    <t>prachi@</t>
+    <t>prachi@oksbi</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,12 +525,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Testbook_Maven/src/test/resources/profile_update.xlsx
+++ b/Testbook_Maven/src/test/resources/profile_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8AFA92B2-D350-49AF-A059-2DE486C4BAE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ABC7C31F-9A5B-4DAB-A0EE-4B1F51855791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="380" windowWidth="18550" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
+    <workbookView xWindow="3230" yWindow="2280" windowWidth="18590" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Testbook_Maven/src/test/resources/profile_update.xlsx
+++ b/Testbook_Maven/src/test/resources/profile_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ABC7C31F-9A5B-4DAB-A0EE-4B1F51855791}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{529DBDFC-7CEA-48BC-B12D-DF5B8EBD9F4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3230" yWindow="2280" windowWidth="18590" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
+    <workbookView xWindow="1330" yWindow="380" windowWidth="18630" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -510,10 +510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC633DA3-1567-4917-A08E-F45B24A01562}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,20 +523,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{3ADAA073-60F9-471F-826F-B3AA1FF4EB52}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{A62F7F30-BF67-49D9-95D8-C864BD4AA6FC}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{3ADAA073-60F9-471F-826F-B3AA1FF4EB52}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A62F7F30-BF67-49D9-95D8-C864BD4AA6FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testbook_Maven/src/test/resources/profile_update.xlsx
+++ b/Testbook_Maven/src/test/resources/profile_update.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{529DBDFC-7CEA-48BC-B12D-DF5B8EBD9F4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{179E1AEE-F70E-4B41-A64D-DF00A1E75F4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="380" windowWidth="18630" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
+    <workbookView xWindow="1710" yWindow="760" windowWidth="18670" windowHeight="11060" activeTab="2" xr2:uid="{19F32578-6BA8-4C62-BEA4-01E39B47F00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,12 +525,12 @@
     </row>
     <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.35"/>
